--- a/biology/Botanique/Senna_(genre)/Senna_(genre).xlsx
+++ b/biology/Botanique/Senna_(genre)/Senna_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senna est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, à répartition pantropicale, qui compte plus de 270 espèces acceptées.
 </t>
@@ -511,9 +523,11 @@
           <t>Statut agroenvironnemental</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces de ce genre ont développé une certaine résistance au glyphosate, matière active de plusieurs désherbants totaux les plus vendus et utilisés au monde (dont le Roundup)[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces de ce genre ont développé une certaine résistance au glyphosate, matière active de plusieurs désherbants totaux les plus vendus et utilisés au monde (dont le Roundup),.
 </t>
         </is>
       </c>
@@ -542,13 +556,50 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre ont longtemps été rattachées au genre Cassia. 
 Ce n'est que depuis le début des années 1980 que le genre Senna est considéré comme un genre à part entière. 
 Un autre genre a été détaché du genre Cassia, le genre Chamaecrista.
-Synonymes
-Selon GRIN            (4 octobre 2018)[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Senna_(genre)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Senna_(genre)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (4 octobre 2018) :
 Chamaefistula (DC.) G. Don
 Chamaesenna (DC.) Raf. ex Pittier
 Desmodiocassia Britton &amp; Rose
@@ -565,8 +616,43 @@
 Sciacassia Britton
 Tharpia Britton &amp; Rose
 Xerocassia Britton &amp; Rose
-Liste d'espèces
-Selon The Plant List            (15 septembre 2014)[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Senna_(genre)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Senna_(genre)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (15 septembre 2014) :
 Senna acanthoclada (Griseb.) H.S.Irwin &amp; Barneby
 Senna acclinis (F. Muell.) Randell
 Senna aciphylla (Benth. ex A. Gray) Randell
